--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_499__Reeval_Sobol_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_499__Reeval_Sobol_Modell_1.1.xlsx
@@ -6121,28 +6121,28 @@
                   <c:v>-0.1076503545045853</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.07273864746094</c:v>
+                  <c:v>30.07274055480957</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4196143746376038</c:v>
+                  <c:v>0.4196166396141052</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>45.83684158325195</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02172109112143517</c:v>
+                  <c:v>0.02172565087676048</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.2237849086523056</c:v>
+                  <c:v>-0.2237894684076309</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.58555221557617</c:v>
+                  <c:v>51.58555603027344</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>55.54111862182617</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49.8291130065918</c:v>
+                  <c:v>49.82911682128906</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>49.73322296142578</c:v>
@@ -6157,13 +6157,13 @@
                   <c:v>-0.5710647702217102</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>47.97599792480469</c:v>
+                  <c:v>47.97599411010742</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>47.65300750732422</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50.52495956420898</c:v>
+                  <c:v>50.52496337890625</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>51.20743179321289</c:v>
@@ -6175,10 +6175,10 @@
                   <c:v>50.58258438110352</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>51.75576782226562</c:v>
+                  <c:v>51.75576400756836</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.776615858078003</c:v>
+                  <c:v>3.776613712310791</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>44.76105880737305</c:v>
@@ -6190,19 +6190,19 @@
                   <c:v>49.17998886108398</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>51.38064575195312</c:v>
+                  <c:v>51.38063430786133</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-0.9123883843421936</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.139492988586426</c:v>
+                  <c:v>9.139490127563477</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.2551299333572388</c:v>
+                  <c:v>0.2551276385784149</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>51.54400634765625</c:v>
+                  <c:v>51.54400253295898</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>49.87094116210938</c:v>
@@ -6217,13 +6217,13 @@
                   <c:v>0.8431015610694885</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.409691691398621</c:v>
+                  <c:v>-1.409689426422119</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.1937369108200073</c:v>
+                  <c:v>-0.1937346309423447</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7.785480499267578</c:v>
+                  <c:v>7.785478115081787</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-0.3634276688098907</c:v>
@@ -6238,13 +6238,13 @@
                   <c:v>26.72479248046875</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.45346212387085</c:v>
+                  <c:v>1.453464508056641</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-0.2686608731746674</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.188373208045959</c:v>
+                  <c:v>1.188370943069458</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>49.15309143066406</c:v>
@@ -6253,40 +6253,40 @@
                   <c:v>-0.1485737264156342</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>36.59176635742188</c:v>
+                  <c:v>36.59177017211914</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>43.40158843994141</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>45.06177139282227</c:v>
+                  <c:v>45.06177520751953</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>47.63847351074219</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>43.59046936035156</c:v>
+                  <c:v>43.59047698974609</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.1792896091938019</c:v>
+                  <c:v>-0.1792873293161392</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.4078500270843506</c:v>
+                  <c:v>0.4078477323055267</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.1885830163955688</c:v>
+                  <c:v>0.1885852962732315</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-1.457043170928955</c:v>
+                  <c:v>-1.457040905952454</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>50.87570571899414</c:v>
+                  <c:v>50.87569808959961</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>48.34718704223633</c:v>
+                  <c:v>48.3471794128418</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7.166961669921875</c:v>
+                  <c:v>7.166958332061768</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>-1.507761478424072</c:v>
@@ -6295,22 +6295,22 @@
                   <c:v>50.60245895385742</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>58.94512557983398</c:v>
+                  <c:v>58.94511795043945</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.136091336607933</c:v>
+                  <c:v>0.1360890567302704</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.980353116989136</c:v>
+                  <c:v>1.980355381965637</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.2142407596111298</c:v>
+                  <c:v>-0.2142361998558044</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>50.50147247314453</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>46.23887634277344</c:v>
+                  <c:v>46.2388801574707</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>0.05424004048109055</c:v>
@@ -6319,16 +6319,16 @@
                   <c:v>-0.4964531064033508</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.02647379040718079</c:v>
+                  <c:v>-0.02647607028484344</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.5624096393585205</c:v>
+                  <c:v>-0.562407374382019</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.3847635090351105</c:v>
+                  <c:v>-0.384761244058609</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.5757126212120056</c:v>
+                  <c:v>-0.5757148861885071</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>0.19596166908741</c:v>
@@ -6340,58 +6340,58 @@
                   <c:v>46.77826309204102</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.2531673014163971</c:v>
+                  <c:v>0.2531650364398956</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.07764793932437897</c:v>
+                  <c:v>0.07765021920204163</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>33.28619384765625</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.8494521975517273</c:v>
+                  <c:v>-0.8494498729705811</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>42.28754806518555</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.243787050247192</c:v>
+                  <c:v>2.243789434432983</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>46.0754280090332</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.06781657785177231</c:v>
+                  <c:v>0.06781201809644699</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>1.736362934112549</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.36984658241272</c:v>
+                  <c:v>1.369842052459717</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>48.51566696166992</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>43.03897094726562</c:v>
+                  <c:v>43.03897476196289</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>52.13971710205078</c:v>
+                  <c:v>52.13972854614258</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.5654777884483337</c:v>
+                  <c:v>0.5654755234718323</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.664085149765015</c:v>
+                  <c:v>3.664083003997803</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.34392449259758</c:v>
+                  <c:v>0.3439267873764038</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>0.4177292585372925</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>50.37051010131836</c:v>
+                  <c:v>50.37050628662109</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>51.44449615478516</c:v>
@@ -6400,28 +6400,28 @@
                   <c:v>0.8569402694702148</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.039470672607422</c:v>
+                  <c:v>6.039468765258789</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>-0.4773283302783966</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.1945597976446152</c:v>
+                  <c:v>0.1945643573999405</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>46.65324020385742</c:v>
+                  <c:v>46.65323257446289</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>7.677113056182861</c:v>
+                  <c:v>7.677109718322754</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>34.04278564453125</c:v>
+                  <c:v>34.04278182983398</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>49.51200485229492</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>24.23216247558594</c:v>
+                  <c:v>24.23215866088867</c:v>
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>-0.3873689472675323</c:v>
@@ -7151,7 +7151,7 @@
         <v>34.7122</v>
       </c>
       <c r="F3">
-        <v>30.07273864746094</v>
+        <v>30.07274055480957</v>
       </c>
       <c r="G3">
         <v>77</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4196143746376038</v>
+        <v>0.4196166396141052</v>
       </c>
       <c r="G4">
         <v>77</v>
@@ -7247,7 +7247,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02172109112143517</v>
+        <v>0.02172565087676048</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>-0.2237849086523056</v>
+        <v>-0.2237894684076309</v>
       </c>
       <c r="G7">
         <v>77</v>
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>51.58555221557617</v>
+        <v>51.58555603027344</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7351,7 +7351,7 @@
         <v>49.6799</v>
       </c>
       <c r="F10">
-        <v>49.8291130065918</v>
+        <v>49.82911682128906</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7451,7 +7451,7 @@
         <v>45.6578</v>
       </c>
       <c r="F15">
-        <v>47.97599792480469</v>
+        <v>47.97599411010742</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7491,7 +7491,7 @@
         <v>51.572</v>
       </c>
       <c r="F17">
-        <v>50.52495956420898</v>
+        <v>50.52496337890625</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>51.6611</v>
       </c>
       <c r="F21">
-        <v>51.75576782226562</v>
+        <v>51.75576400756836</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>34.2646</v>
       </c>
       <c r="F22">
-        <v>3.776615858078003</v>
+        <v>3.776613712310791</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>49.6745</v>
       </c>
       <c r="F26">
-        <v>51.38064575195312</v>
+        <v>51.38063430786133</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>9.139492988586426</v>
+        <v>9.139490127563477</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0.2551299333572388</v>
+        <v>0.2551276385784149</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>51.3308</v>
       </c>
       <c r="F30">
-        <v>51.54400634765625</v>
+        <v>51.54400253295898</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-1.409691691398621</v>
+        <v>-1.409689426422119</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>-0.1937369108200073</v>
+        <v>-0.1937346309423447</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>7.785480499267578</v>
+        <v>7.785478115081787</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.45346212387085</v>
+        <v>1.453464508056641</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.188373208045959</v>
+        <v>1.188370943069458</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>36.59176635742188</v>
+        <v>36.59177017211914</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>32.9114</v>
       </c>
       <c r="F49">
-        <v>45.06177139282227</v>
+        <v>45.06177520751953</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>46.8488</v>
       </c>
       <c r="F51">
-        <v>43.59046936035156</v>
+        <v>43.59047698974609</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>-0.1792896091938019</v>
+        <v>-0.1792873293161392</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>34.2886</v>
       </c>
       <c r="F53">
-        <v>0.4078500270843506</v>
+        <v>0.4078477323055267</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0.1885830163955688</v>
+        <v>0.1885852962732315</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>39.3649</v>
       </c>
       <c r="F55">
-        <v>-1.457043170928955</v>
+        <v>-1.457040905952454</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>48.7071</v>
       </c>
       <c r="F56">
-        <v>50.87570571899414</v>
+        <v>50.87569808959961</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>48.2681</v>
       </c>
       <c r="F57">
-        <v>48.34718704223633</v>
+        <v>48.3471794128418</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>7.166961669921875</v>
+        <v>7.166958332061768</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>35.7539</v>
       </c>
       <c r="F61">
-        <v>58.94512557983398</v>
+        <v>58.94511795043945</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0.136091336607933</v>
+        <v>0.1360890567302704</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>49.8526</v>
       </c>
       <c r="F63">
-        <v>1.980353116989136</v>
+        <v>1.980355381965637</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>-0.2142407596111298</v>
+        <v>-0.2142361998558044</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>45.7573</v>
       </c>
       <c r="F66">
-        <v>46.23887634277344</v>
+        <v>46.2388801574707</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>-0.02647379040718079</v>
+        <v>-0.02647607028484344</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>38.2901</v>
       </c>
       <c r="F70">
-        <v>-0.5624096393585205</v>
+        <v>-0.562407374382019</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>-0.3847635090351105</v>
+        <v>-0.384761244058609</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>-0.5757126212120056</v>
+        <v>-0.5757148861885071</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0.2531673014163971</v>
+        <v>0.2531650364398956</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0.07764793932437897</v>
+        <v>0.07765021920204163</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>-0.8494521975517273</v>
+        <v>-0.8494498729705811</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>2.243787050247192</v>
+        <v>2.243789434432983</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>0.06781657785177231</v>
+        <v>0.06781201809644699</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.36984658241272</v>
+        <v>1.369842052459717</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>26.1928</v>
       </c>
       <c r="F87">
-        <v>43.03897094726562</v>
+        <v>43.03897476196289</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>47.2348</v>
       </c>
       <c r="F88">
-        <v>52.13971710205078</v>
+        <v>52.13972854614258</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>0.5654777884483337</v>
+        <v>0.5654755234718323</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>50.182</v>
       </c>
       <c r="F90">
-        <v>3.664085149765015</v>
+        <v>3.664083003997803</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0.34392449259758</v>
+        <v>0.3439267873764038</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>48.8924</v>
       </c>
       <c r="F93">
-        <v>50.37051010131836</v>
+        <v>50.37050628662109</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -9071,7 +9071,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>6.039470672607422</v>
+        <v>6.039468765258789</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9111,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>0.1945597976446152</v>
+        <v>0.1945643573999405</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9131,7 +9131,7 @@
         <v>41.217</v>
       </c>
       <c r="F99">
-        <v>46.65324020385742</v>
+        <v>46.65323257446289</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9151,7 +9151,7 @@
         <v>46.0374</v>
       </c>
       <c r="F100">
-        <v>7.677113056182861</v>
+        <v>7.677109718322754</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9171,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>34.04278564453125</v>
+        <v>34.04278182983398</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -9211,7 +9211,7 @@
         <v>58.1678</v>
       </c>
       <c r="F103">
-        <v>24.23216247558594</v>
+        <v>24.23215866088867</v>
       </c>
     </row>
     <row r="104" spans="1:6">
